--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_27_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_27_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1345959.833444423</v>
+        <v>1325794.656838445</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8306575.833941367</v>
+        <v>8112558.798638825</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11191249.97901371</v>
+        <v>11739719.61562467</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6143824.580439015</v>
+        <v>6097829.022044183</v>
       </c>
     </row>
     <row r="11">
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>91.64927167527121</v>
       </c>
       <c r="K11" t="n">
         <v>220.0898510449805</v>
@@ -8705,10 +8707,10 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>190.3291084552831</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.356400519837</v>
+        <v>132.9090570230344</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>114.8883373120542</v>
+        <v>37.44099381525162</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>49.1577469284591</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>122.5488387846562</v>
+        <v>41.94507923191823</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -8787,7 +8789,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.032484731409</v>
+        <v>50.58514123460644</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,22 +8853,22 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>122.9353869266258</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M13" t="n">
-        <v>126.9764945929925</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N13" t="n">
-        <v>115.7362551106207</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O13" t="n">
-        <v>126.5072490972303</v>
+        <v>49.05990560042771</v>
       </c>
       <c r="P13" t="n">
-        <v>125.7787146945351</v>
+        <v>48.33137119773254</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>62.10836877803077</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>89.7266343986263</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>146.3697821185722</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>140.9496003758576</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
@@ -8945,7 +8947,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
-        <v>143.8353622769711</v>
+        <v>151.9944678517888</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9000,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8.203109871940015</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>35.51835653860671</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>46.52216884629901</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>50.81476379395833</v>
+        <v>52.73740107060324</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9085,25 +9087,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>37.6939880424754</v>
+        <v>39.6166253191203</v>
       </c>
       <c r="L16" t="n">
-        <v>43.5654061531783</v>
+        <v>45.48804342982321</v>
       </c>
       <c r="M16" t="n">
-        <v>47.60651381954507</v>
+        <v>49.52915109618998</v>
       </c>
       <c r="N16" t="n">
-        <v>36.36627433717321</v>
+        <v>38.28891161381812</v>
       </c>
       <c r="O16" t="n">
-        <v>47.13726832378281</v>
+        <v>49.05990560042771</v>
       </c>
       <c r="P16" t="n">
-        <v>46.40873392108763</v>
+        <v>48.33137119773254</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.18573150138586</v>
+        <v>62.10836877803077</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>102.5755769292079</v>
+        <v>78.08255436712476</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>117.126500885419</v>
       </c>
       <c r="L17" t="n">
         <v>235.7664149699872</v>
@@ -9182,7 +9184,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
-        <v>130.9864197463895</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9237,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>8.203109871940015</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>35.51835653860671</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>46.52216884629901</v>
+        <v>34.87808881479747</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>82.43029500615037</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>51.27697431638445</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>37.01842392645999</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>42.71615380440242</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>24.03207127983458</v>
       </c>
       <c r="K19" t="n">
-        <v>37.6939880424754</v>
+        <v>26.04990801097385</v>
       </c>
       <c r="L19" t="n">
-        <v>43.5654061531783</v>
+        <v>31.92132612167676</v>
       </c>
       <c r="M19" t="n">
-        <v>47.60651381954507</v>
+        <v>35.96243378804353</v>
       </c>
       <c r="N19" t="n">
-        <v>36.36627433717321</v>
+        <v>24.72219430567166</v>
       </c>
       <c r="O19" t="n">
-        <v>47.13726832378281</v>
+        <v>35.49318829228126</v>
       </c>
       <c r="P19" t="n">
-        <v>46.40873392108763</v>
+        <v>34.76465388958609</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.18573150138586</v>
+        <v>48.54165146988431</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>89.7266343986263</v>
+        <v>78.08255436712476</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>117.126500885419</v>
       </c>
       <c r="L20" t="n">
         <v>235.7664149699872</v>
@@ -9413,13 +9415,13 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>127.1348612621252</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>128.269645595708</v>
       </c>
       <c r="Q20" t="n">
-        <v>130.9864197463895</v>
+        <v>119.342339714888</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>8.203109871940015</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>35.51835653860671</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>46.52216884629901</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -9492,7 +9494,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>51.27697431638445</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9559,25 +9561,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>37.6939880424754</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>43.5654061531783</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>47.60651381954507</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>78.98193373026473</v>
+        <v>42.4048667913208</v>
       </c>
       <c r="O22" t="n">
-        <v>47.13726832378281</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
-        <v>46.40873392108763</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.18573150138586</v>
+        <v>48.54165146988431</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>89.7266343986263</v>
+        <v>78.08255436712476</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>117.126500885419</v>
       </c>
       <c r="L23" t="n">
         <v>235.7664149699872</v>
@@ -9650,13 +9652,13 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>159.0241356853966</v>
       </c>
       <c r="P23" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
-        <v>130.9864197463895</v>
+        <v>119.342339714888</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>8.203109871940015</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>35.51835653860671</v>
+        <v>23.87427650710517</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -9723,22 +9725,22 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>74.93683514853926</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>40.02244195527332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>31.01105725476872</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>37.01842392645999</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>42.71615380440242</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9796,25 +9798,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>37.6939880424754</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>43.5654061531783</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M25" t="n">
-        <v>47.60651381954507</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N25" t="n">
-        <v>36.36627433717321</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O25" t="n">
-        <v>47.13726832378281</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
-        <v>46.40873392108763</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.18573150138586</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>94.8838612749919</v>
+        <v>123.6006596207268</v>
       </c>
       <c r="K26" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>146.3697821185722</v>
       </c>
       <c r="M26" t="n">
         <v>230.3462332272727</v>
@@ -9887,13 +9889,13 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>140.7015785702716</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>141.8363629038545</v>
       </c>
       <c r="Q26" t="n">
-        <v>148.266949190837</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>40.67558341497231</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>51.67939572266461</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>55.97199067032393</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
@@ -10033,25 +10035,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>42.85121491884099</v>
+        <v>39.6166253191203</v>
       </c>
       <c r="L28" t="n">
-        <v>48.7226330295439</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M28" t="n">
-        <v>52.76374069591067</v>
+        <v>49.52915109618998</v>
       </c>
       <c r="N28" t="n">
-        <v>41.52350121353881</v>
+        <v>38.28891161381812</v>
       </c>
       <c r="O28" t="n">
-        <v>52.2944952001484</v>
+        <v>49.05990560042771</v>
       </c>
       <c r="P28" t="n">
-        <v>51.56596079745323</v>
+        <v>48.33137119773254</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>62.10836877803077</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>35.97669213330241</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>220.0898510449805</v>
@@ -10124,13 +10126,13 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>140.7015785702716</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>141.8363629038545</v>
       </c>
       <c r="Q29" t="n">
-        <v>77.23647748106561</v>
+        <v>172.2613343371255</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>37.44099381525162</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.70947885570629</v>
+        <v>50.58514123460644</v>
       </c>
       <c r="R30" t="n">
-        <v>0.610291570580074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>39.6166253191203</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>45.48804342982321</v>
       </c>
       <c r="M31" t="n">
-        <v>138.9257839476051</v>
+        <v>49.52915109618998</v>
       </c>
       <c r="N31" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>49.05990560042771</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>48.33137119773254</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.435789236061964</v>
+        <v>62.10836877803077</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>35.97669213330241</v>
+        <v>68.81046029018982</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>107.8544068084841</v>
       </c>
       <c r="L32" t="n">
         <v>235.7664149699872</v>
@@ -10361,13 +10363,13 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8627671851903</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>118.9975515187731</v>
       </c>
       <c r="Q32" t="n">
-        <v>77.23647748106561</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>64.44358399166809</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>0.610291570580074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>14.75997720289965</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>22.64923204474182</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>26.69033971110859</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>100.2770665866564</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>26.22109421534633</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>25.49255981265115</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.435789236061964</v>
+        <v>39.26955739294938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>35.97669213330241</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>107.8544068084841</v>
       </c>
       <c r="L35" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>230.3462332272727</v>
+        <v>133.0231965002106</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
@@ -10601,10 +10603,10 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>118.9975515187731</v>
       </c>
       <c r="Q35" t="n">
-        <v>77.23647748106561</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>14.60218243017023</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>26.31893554337772</v>
       </c>
       <c r="M36" t="n">
-        <v>115.7388905446706</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>19.10626784683684</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>21.73896317783378</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>0.610291570580074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>14.75997720289965</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>16.77781393403892</v>
       </c>
       <c r="L37" t="n">
         <v>134.8846762812383</v>
@@ -10759,10 +10761,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.435789236061964</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>35.97669213330241</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>107.8544068084841</v>
       </c>
       <c r="L38" t="n">
         <v>235.7664149699872</v>
@@ -10838,10 +10840,10 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>118.9975515187731</v>
       </c>
       <c r="Q38" t="n">
-        <v>77.23647748106561</v>
+        <v>183.8890959178438</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,31 +10901,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>25.60599473786253</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>115.7388905446701</v>
+        <v>21.73896317783378</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>0.610291570580074</v>
+        <v>33.44405972746749</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>14.75997720289965</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>16.77781393403892</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>22.64923204474182</v>
       </c>
       <c r="M40" t="n">
-        <v>138.9257839476051</v>
+        <v>26.69033971110859</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>15.45010022873673</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>26.22109421534633</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>25.49255981265115</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.435789236061964</v>
+        <v>39.26955739294938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>42.76875461154933</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>224.6423171675828</v>
       </c>
       <c r="M41" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>193.0075349033631</v>
       </c>
       <c r="O41" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>194.8274670620417</v>
       </c>
       <c r="Q41" t="n">
-        <v>84.02853995931252</v>
+        <v>185.9001611812216</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>0.2772298647372224</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>3.856884006881359</v>
+        <v>105.7285052287905</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>4.319094529307478</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>37.92890435458457</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>7.402354048826993</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
         <v>134.8846762812383</v>
       </c>
       <c r="M43" t="n">
-        <v>138.9257839476051</v>
+        <v>102.5202552543772</v>
       </c>
       <c r="N43" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O43" t="n">
-        <v>138.4565384518428</v>
+        <v>102.051009758615</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.3224753559198</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.22785171430888</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11315,7 +11317,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>196.786114380445</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>90.43209797343886</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>101.4359102811312</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>105.7285052287905</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>94.93618339010547</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>106.1907157512166</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>97.56887872110241</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>103.5762453927937</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11467,7 +11469,7 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>102.051009758615</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.7845523088681</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C11" t="n">
-        <v>353.323602416395</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D11" t="n">
-        <v>342.7337522660704</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E11" t="n">
-        <v>369.9810807176493</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F11" t="n">
-        <v>394.9267563870989</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G11" t="n">
-        <v>403.3534481605225</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H11" t="n">
-        <v>327.5255127611546</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I11" t="n">
-        <v>198.5266002157934</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>137.9198285865372</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S11" t="n">
-        <v>197.0707802316328</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1465602095188</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U11" t="n">
-        <v>239.396363553224</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V11" t="n">
-        <v>315.8029691155224</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W11" t="n">
-        <v>337.2916793628005</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X11" t="n">
-        <v>357.7818113238565</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y11" t="n">
-        <v>374.2886493014411</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>154.5838942952548</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C12" t="n">
-        <v>160.7592096337032</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D12" t="n">
-        <v>135.4957762100262</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E12" t="n">
-        <v>145.6957911007884</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F12" t="n">
-        <v>133.1199230387714</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G12" t="n">
-        <v>125.3942278085981</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H12" t="n">
-        <v>100.2861548818839</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I12" t="n">
-        <v>77.44734349680256</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>88.20854479803062</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S12" t="n">
-        <v>159.7338817492253</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T12" t="n">
-        <v>188.2154393402091</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U12" t="n">
-        <v>213.9920927263623</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V12" t="n">
-        <v>220.8512977948128</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W12" t="n">
-        <v>239.7456938063071</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X12" t="n">
-        <v>193.823695848865</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y12" t="n">
-        <v>193.7334064226918</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="13">
@@ -23413,34 +23415,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.8826908273248</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C13" t="n">
-        <v>155.2975317440153</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D13" t="n">
-        <v>136.6661836635998</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E13" t="n">
-        <v>134.4846732919567</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4717586683187</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G13" t="n">
-        <v>156.0416900038462</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H13" t="n">
-        <v>150.2778831528271</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I13" t="n">
-        <v>143.5011855726458</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J13" t="n">
-        <v>81.40989076206026</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K13" t="n">
-        <v>10.32020247127033</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.21275389708187</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.344102022557</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S13" t="n">
-        <v>212.0673086823597</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T13" t="n">
-        <v>215.996300073669</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U13" t="n">
-        <v>274.3697400018784</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V13" t="n">
-        <v>240.1883539692155</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W13" t="n">
-        <v>274.5737089819785</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X13" t="n">
-        <v>213.7603660344246</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.6353639974823</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>291.4145715354206</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C14" t="n">
-        <v>273.9536216429476</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D14" t="n">
-        <v>263.363771492623</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E14" t="n">
-        <v>290.6110999442018</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F14" t="n">
-        <v>315.5567756136514</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9834673870751</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H14" t="n">
-        <v>248.1555319877071</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I14" t="n">
-        <v>119.1566194423459</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>58.5498478130897</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S14" t="n">
-        <v>117.7007994581854</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T14" t="n">
-        <v>131.7765794360714</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U14" t="n">
-        <v>160.0263827797765</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V14" t="n">
-        <v>236.4329883420749</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W14" t="n">
-        <v>257.921698589353</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X14" t="n">
-        <v>278.411830550409</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y14" t="n">
-        <v>294.9186685279936</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.21391352180736</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C15" t="n">
-        <v>81.38922886025576</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D15" t="n">
-        <v>56.12579543657877</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E15" t="n">
-        <v>66.32581032734096</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F15" t="n">
-        <v>53.7499422653239</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G15" t="n">
-        <v>46.02424703515065</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H15" t="n">
-        <v>20.91617410843648</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.83856402458315</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S15" t="n">
-        <v>80.36390097577784</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T15" t="n">
-        <v>108.8454585667616</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U15" t="n">
-        <v>134.6221119529148</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V15" t="n">
-        <v>141.4813170213653</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W15" t="n">
-        <v>160.3757130328596</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X15" t="n">
-        <v>114.4537150754175</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y15" t="n">
-        <v>114.3634256492444</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.51271005387731</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C16" t="n">
-        <v>75.92755097056785</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D16" t="n">
-        <v>57.29620289015237</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E16" t="n">
-        <v>55.11469251850919</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F16" t="n">
-        <v>54.10177789487126</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G16" t="n">
-        <v>76.67170923039878</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H16" t="n">
-        <v>70.90790237937959</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I16" t="n">
-        <v>64.1312047991983</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J16" t="n">
-        <v>2.039909988612791</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>85.9741212491095</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S16" t="n">
-        <v>132.6973279089123</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T16" t="n">
-        <v>136.6263193002215</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U16" t="n">
-        <v>194.9997592284309</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V16" t="n">
-        <v>160.818373195768</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W16" t="n">
-        <v>195.203728208531</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X16" t="n">
-        <v>134.3903852609772</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.2653832240348</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>291.4145715354206</v>
+        <v>279.7704915039191</v>
       </c>
       <c r="C17" t="n">
-        <v>273.9536216429476</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D17" t="n">
-        <v>263.363771492623</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E17" t="n">
-        <v>290.6110999442018</v>
+        <v>278.9670199127003</v>
       </c>
       <c r="F17" t="n">
-        <v>315.5567756136514</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9834673870751</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H17" t="n">
-        <v>248.1555319877071</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I17" t="n">
-        <v>119.1566194423459</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>58.5498478130897</v>
+        <v>46.90576778158815</v>
       </c>
       <c r="S17" t="n">
-        <v>117.7007994581854</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T17" t="n">
-        <v>131.7765794360714</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U17" t="n">
-        <v>160.0263827797765</v>
+        <v>148.382302748275</v>
       </c>
       <c r="V17" t="n">
-        <v>236.4329883420749</v>
+        <v>224.7889083105734</v>
       </c>
       <c r="W17" t="n">
-        <v>257.921698589353</v>
+        <v>246.2776185578515</v>
       </c>
       <c r="X17" t="n">
-        <v>278.411830550409</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y17" t="n">
-        <v>294.9186685279936</v>
+        <v>283.2745884964921</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75.21391352180736</v>
+        <v>63.56983349030581</v>
       </c>
       <c r="C18" t="n">
-        <v>81.38922886025576</v>
+        <v>69.74514882875421</v>
       </c>
       <c r="D18" t="n">
-        <v>56.12579543657877</v>
+        <v>44.48171540507722</v>
       </c>
       <c r="E18" t="n">
-        <v>66.32581032734096</v>
+        <v>54.68173029583942</v>
       </c>
       <c r="F18" t="n">
-        <v>53.7499422653239</v>
+        <v>42.10586223382235</v>
       </c>
       <c r="G18" t="n">
-        <v>46.02424703515065</v>
+        <v>34.38016700364911</v>
       </c>
       <c r="H18" t="n">
-        <v>20.91617410843648</v>
+        <v>9.272094076934934</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.83856402458315</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>80.36390097577784</v>
+        <v>68.71982094427629</v>
       </c>
       <c r="T18" t="n">
-        <v>108.8454585667616</v>
+        <v>97.20137853526008</v>
       </c>
       <c r="U18" t="n">
-        <v>134.6221119529148</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V18" t="n">
-        <v>141.4813170213653</v>
+        <v>129.8372369898638</v>
       </c>
       <c r="W18" t="n">
-        <v>160.3757130328596</v>
+        <v>148.7316330013581</v>
       </c>
       <c r="X18" t="n">
-        <v>114.4537150754175</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y18" t="n">
-        <v>114.3634256492444</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.51271005387731</v>
+        <v>76.86863002237577</v>
       </c>
       <c r="C19" t="n">
-        <v>75.92755097056785</v>
+        <v>64.28347093906631</v>
       </c>
       <c r="D19" t="n">
-        <v>57.29620289015237</v>
+        <v>45.65212285865083</v>
       </c>
       <c r="E19" t="n">
-        <v>55.11469251850919</v>
+        <v>43.47061248700764</v>
       </c>
       <c r="F19" t="n">
-        <v>54.10177789487126</v>
+        <v>42.45769786336972</v>
       </c>
       <c r="G19" t="n">
-        <v>76.67170923039878</v>
+        <v>65.02762919889723</v>
       </c>
       <c r="H19" t="n">
-        <v>70.90790237937959</v>
+        <v>59.26382234787805</v>
       </c>
       <c r="I19" t="n">
-        <v>64.1312047991983</v>
+        <v>52.48712476769676</v>
       </c>
       <c r="J19" t="n">
-        <v>2.039909988612791</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>85.9741212491095</v>
+        <v>74.33004121760796</v>
       </c>
       <c r="S19" t="n">
-        <v>132.6973279089123</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T19" t="n">
-        <v>136.6263193002215</v>
+        <v>124.98223926872</v>
       </c>
       <c r="U19" t="n">
-        <v>194.9997592284309</v>
+        <v>183.3556791969294</v>
       </c>
       <c r="V19" t="n">
-        <v>160.818373195768</v>
+        <v>149.1742931642665</v>
       </c>
       <c r="W19" t="n">
-        <v>195.203728208531</v>
+        <v>183.5596481770295</v>
       </c>
       <c r="X19" t="n">
-        <v>134.3903852609772</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.2653832240348</v>
+        <v>115.6213031925333</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>291.4145715354206</v>
+        <v>279.7704915039191</v>
       </c>
       <c r="C20" t="n">
-        <v>273.9536216429476</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D20" t="n">
-        <v>263.363771492623</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E20" t="n">
-        <v>290.6110999442018</v>
+        <v>278.9670199127003</v>
       </c>
       <c r="F20" t="n">
-        <v>315.5567756136514</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G20" t="n">
-        <v>323.9834673870751</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H20" t="n">
-        <v>248.1555319877071</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I20" t="n">
-        <v>119.1566194423459</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>58.5498478130897</v>
+        <v>46.90576778158815</v>
       </c>
       <c r="S20" t="n">
-        <v>117.7007994581854</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T20" t="n">
-        <v>131.7765794360714</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U20" t="n">
-        <v>160.0263827797765</v>
+        <v>148.382302748275</v>
       </c>
       <c r="V20" t="n">
-        <v>236.4329883420749</v>
+        <v>224.7889083105734</v>
       </c>
       <c r="W20" t="n">
-        <v>257.921698589353</v>
+        <v>246.2776185578515</v>
       </c>
       <c r="X20" t="n">
-        <v>278.411830550409</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y20" t="n">
-        <v>294.9186685279936</v>
+        <v>283.2745884964921</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.21391352180736</v>
+        <v>63.56983349030581</v>
       </c>
       <c r="C21" t="n">
-        <v>81.38922886025576</v>
+        <v>69.74514882875421</v>
       </c>
       <c r="D21" t="n">
-        <v>56.12579543657877</v>
+        <v>44.48171540507722</v>
       </c>
       <c r="E21" t="n">
-        <v>66.32581032734096</v>
+        <v>54.68173029583942</v>
       </c>
       <c r="F21" t="n">
-        <v>53.7499422653239</v>
+        <v>42.10586223382235</v>
       </c>
       <c r="G21" t="n">
-        <v>46.02424703515065</v>
+        <v>34.38016700364911</v>
       </c>
       <c r="H21" t="n">
-        <v>20.91617410843648</v>
+        <v>9.272094076934934</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.83856402458315</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>80.36390097577784</v>
+        <v>68.71982094427629</v>
       </c>
       <c r="T21" t="n">
-        <v>108.8454585667616</v>
+        <v>97.20137853526008</v>
       </c>
       <c r="U21" t="n">
-        <v>134.6221119529148</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V21" t="n">
-        <v>141.4813170213653</v>
+        <v>129.8372369898638</v>
       </c>
       <c r="W21" t="n">
-        <v>160.3757130328596</v>
+        <v>148.7316330013581</v>
       </c>
       <c r="X21" t="n">
-        <v>114.4537150754175</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y21" t="n">
-        <v>114.3634256492444</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.51271005387731</v>
+        <v>76.86863002237577</v>
       </c>
       <c r="C22" t="n">
-        <v>75.92755097056785</v>
+        <v>64.28347093906631</v>
       </c>
       <c r="D22" t="n">
-        <v>57.29620289015237</v>
+        <v>45.65212285865083</v>
       </c>
       <c r="E22" t="n">
-        <v>55.11469251850919</v>
+        <v>43.47061248700764</v>
       </c>
       <c r="F22" t="n">
-        <v>54.10177789487126</v>
+        <v>42.45769786336972</v>
       </c>
       <c r="G22" t="n">
-        <v>76.67170923039878</v>
+        <v>65.02762919889723</v>
       </c>
       <c r="H22" t="n">
-        <v>70.90790237937959</v>
+        <v>59.26382234787805</v>
       </c>
       <c r="I22" t="n">
-        <v>64.1312047991983</v>
+        <v>52.48712476769676</v>
       </c>
       <c r="J22" t="n">
-        <v>2.039909988612791</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>85.9741212491095</v>
+        <v>74.33004121760796</v>
       </c>
       <c r="S22" t="n">
-        <v>132.6973279089123</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T22" t="n">
-        <v>136.6263193002215</v>
+        <v>124.98223926872</v>
       </c>
       <c r="U22" t="n">
-        <v>194.9997592284309</v>
+        <v>183.3556791969294</v>
       </c>
       <c r="V22" t="n">
-        <v>160.818373195768</v>
+        <v>149.1742931642665</v>
       </c>
       <c r="W22" t="n">
-        <v>195.203728208531</v>
+        <v>183.5596481770295</v>
       </c>
       <c r="X22" t="n">
-        <v>134.3903852609772</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y22" t="n">
-        <v>127.2653832240348</v>
+        <v>115.6213031925333</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>291.4145715354206</v>
+        <v>279.7704915039191</v>
       </c>
       <c r="C23" t="n">
-        <v>273.9536216429476</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D23" t="n">
-        <v>263.363771492623</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E23" t="n">
-        <v>290.6110999442018</v>
+        <v>278.9670199127003</v>
       </c>
       <c r="F23" t="n">
-        <v>315.5567756136514</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9834673870751</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H23" t="n">
-        <v>248.1555319877071</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I23" t="n">
-        <v>119.1566194423459</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>58.5498478130897</v>
+        <v>46.90576778158815</v>
       </c>
       <c r="S23" t="n">
-        <v>117.7007994581854</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T23" t="n">
-        <v>131.7765794360714</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U23" t="n">
-        <v>160.0263827797765</v>
+        <v>148.382302748275</v>
       </c>
       <c r="V23" t="n">
-        <v>236.4329883420749</v>
+        <v>224.7889083105734</v>
       </c>
       <c r="W23" t="n">
-        <v>257.921698589353</v>
+        <v>246.2776185578515</v>
       </c>
       <c r="X23" t="n">
-        <v>278.411830550409</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y23" t="n">
-        <v>294.9186685279936</v>
+        <v>283.2745884964921</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.21391352180736</v>
+        <v>63.56983349030581</v>
       </c>
       <c r="C24" t="n">
-        <v>81.38922886025576</v>
+        <v>69.74514882875421</v>
       </c>
       <c r="D24" t="n">
-        <v>56.12579543657877</v>
+        <v>44.48171540507722</v>
       </c>
       <c r="E24" t="n">
-        <v>66.32581032734096</v>
+        <v>54.68173029583942</v>
       </c>
       <c r="F24" t="n">
-        <v>53.7499422653239</v>
+        <v>42.10586223382235</v>
       </c>
       <c r="G24" t="n">
-        <v>46.02424703515065</v>
+        <v>34.38016700364911</v>
       </c>
       <c r="H24" t="n">
-        <v>20.91617410843648</v>
+        <v>9.272094076934934</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.83856402458315</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>80.36390097577784</v>
+        <v>68.71982094427629</v>
       </c>
       <c r="T24" t="n">
-        <v>108.8454585667616</v>
+        <v>97.20137853526008</v>
       </c>
       <c r="U24" t="n">
-        <v>134.6221119529148</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V24" t="n">
-        <v>141.4813170213653</v>
+        <v>129.8372369898638</v>
       </c>
       <c r="W24" t="n">
-        <v>160.3757130328596</v>
+        <v>148.7316330013581</v>
       </c>
       <c r="X24" t="n">
-        <v>114.4537150754175</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y24" t="n">
-        <v>114.3634256492444</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.51271005387731</v>
+        <v>76.86863002237577</v>
       </c>
       <c r="C25" t="n">
-        <v>75.92755097056785</v>
+        <v>64.28347093906631</v>
       </c>
       <c r="D25" t="n">
-        <v>57.29620289015237</v>
+        <v>45.65212285865083</v>
       </c>
       <c r="E25" t="n">
-        <v>55.11469251850919</v>
+        <v>43.47061248700764</v>
       </c>
       <c r="F25" t="n">
-        <v>54.10177789487126</v>
+        <v>42.45769786336972</v>
       </c>
       <c r="G25" t="n">
-        <v>76.67170923039878</v>
+        <v>65.02762919889723</v>
       </c>
       <c r="H25" t="n">
-        <v>70.90790237937959</v>
+        <v>59.26382234787805</v>
       </c>
       <c r="I25" t="n">
-        <v>64.1312047991983</v>
+        <v>52.48712476769676</v>
       </c>
       <c r="J25" t="n">
-        <v>2.039909988612791</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>85.9741212491095</v>
+        <v>74.33004121760796</v>
       </c>
       <c r="S25" t="n">
-        <v>132.6973279089123</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T25" t="n">
-        <v>136.6263193002215</v>
+        <v>124.98223926872</v>
       </c>
       <c r="U25" t="n">
-        <v>194.9997592284309</v>
+        <v>183.3556791969294</v>
       </c>
       <c r="V25" t="n">
-        <v>160.818373195768</v>
+        <v>149.1742931642665</v>
       </c>
       <c r="W25" t="n">
-        <v>195.203728208531</v>
+        <v>183.5596481770295</v>
       </c>
       <c r="X25" t="n">
-        <v>134.3903852609772</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y25" t="n">
-        <v>127.2653832240348</v>
+        <v>115.6213031925333</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>296.5717984117862</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C26" t="n">
-        <v>279.1108485193132</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D26" t="n">
-        <v>268.5209983689886</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E26" t="n">
-        <v>295.7683268205674</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F26" t="n">
-        <v>320.714002490017</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G26" t="n">
-        <v>329.1406942634407</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H26" t="n">
-        <v>253.3127588640727</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I26" t="n">
-        <v>124.3138463187115</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>63.7070746894553</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S26" t="n">
-        <v>122.858026334551</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T26" t="n">
-        <v>136.933806312437</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U26" t="n">
-        <v>165.1836096561421</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V26" t="n">
-        <v>241.5902152184405</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W26" t="n">
-        <v>263.0789254657186</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X26" t="n">
-        <v>283.5690574267746</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y26" t="n">
-        <v>300.0758954043592</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>80.37114039817295</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C27" t="n">
-        <v>86.54645573662135</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
-        <v>61.28302231294437</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
-        <v>71.48303720370656</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F27" t="n">
-        <v>58.90716914168949</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G27" t="n">
-        <v>51.18147391151625</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H27" t="n">
-        <v>26.07340098480208</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I27" t="n">
-        <v>3.234589599720692</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>13.99579090094875</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
-        <v>85.52112785214344</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T27" t="n">
-        <v>114.0026854431272</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U27" t="n">
-        <v>139.7793388292804</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V27" t="n">
-        <v>146.6385438977309</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W27" t="n">
-        <v>165.5329399092252</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X27" t="n">
-        <v>119.6109419517831</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y27" t="n">
-        <v>119.52065252561</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.66993693024291</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
-        <v>81.08477784693345</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D28" t="n">
-        <v>62.45342976651797</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E28" t="n">
-        <v>60.27191939487479</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F28" t="n">
-        <v>59.25900477123686</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G28" t="n">
-        <v>81.82893610676437</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H28" t="n">
-        <v>76.06512925574519</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I28" t="n">
-        <v>69.2884316755639</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J28" t="n">
-        <v>7.19713686497839</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.1313481254751</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S28" t="n">
-        <v>137.8545547852779</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
-        <v>141.7835461765871</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
-        <v>200.1569861047965</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V28" t="n">
-        <v>165.9756000721336</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
-        <v>200.3609550848966</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
-        <v>139.5476121373428</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y28" t="n">
-        <v>132.4226101004004</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>237.6646292700967</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C29" t="n">
-        <v>220.2036793776237</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
-        <v>209.6138292272991</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E29" t="n">
-        <v>236.8611576788779</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F29" t="n">
-        <v>261.8068333483276</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G29" t="n">
-        <v>270.2335251217512</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H29" t="n">
-        <v>194.4055897223833</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I29" t="n">
-        <v>65.40667717702203</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.799905547765803</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
-        <v>63.95085719286146</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
-        <v>78.02663717074748</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
-        <v>106.2764405144526</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V29" t="n">
-        <v>182.683046076751</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
-        <v>204.1717563240291</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X29" t="n">
-        <v>224.6618882850852</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.1687262626697</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21.46397125648346</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
-        <v>27.63928659493186</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
-        <v>2.375853171254874</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>12.57586806201707</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>26.61395871045394</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
-        <v>55.09551630143773</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U30" t="n">
-        <v>80.87216968759094</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
-        <v>87.73137475604139</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
-        <v>106.6257707675357</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
-        <v>60.7037728100936</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y30" t="n">
-        <v>60.61348338392048</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.76276778855342</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C31" t="n">
-        <v>22.17760870524396</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>3.546260624828477</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E31" t="n">
-        <v>1.364750253185292</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3518356295473666</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
-        <v>22.92176696507488</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H31" t="n">
-        <v>17.1579601140557</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>10.38126253387441</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>32.22417898378561</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
-        <v>78.94738564358838</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
-        <v>82.87637703489762</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U31" t="n">
-        <v>141.249816963107</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V31" t="n">
-        <v>107.0684309304441</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W31" t="n">
-        <v>141.4537859432071</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
-        <v>80.64044299565327</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.51544095871091</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>237.6646292700967</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C32" t="n">
-        <v>220.2036793776237</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D32" t="n">
-        <v>209.6138292272991</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E32" t="n">
-        <v>236.8611576788779</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F32" t="n">
-        <v>261.8068333483276</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G32" t="n">
-        <v>270.2335251217512</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H32" t="n">
-        <v>194.4055897223833</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I32" t="n">
-        <v>65.40667717702203</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.799905547765803</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S32" t="n">
-        <v>63.95085719286146</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T32" t="n">
-        <v>78.02663717074748</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U32" t="n">
-        <v>106.2764405144526</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V32" t="n">
-        <v>182.683046076751</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W32" t="n">
-        <v>204.1717563240291</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X32" t="n">
-        <v>224.6618882850852</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.1687262626697</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.46397125648346</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C33" t="n">
-        <v>27.63928659493186</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D33" t="n">
-        <v>2.375853171254874</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E33" t="n">
-        <v>12.57586806201707</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>26.61395871045394</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T33" t="n">
-        <v>55.09551630143773</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U33" t="n">
-        <v>80.87216968759094</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V33" t="n">
-        <v>87.73137475604139</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W33" t="n">
-        <v>106.6257707675357</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X33" t="n">
-        <v>60.7037728100936</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y33" t="n">
-        <v>60.61348338392048</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="34">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.76276778855342</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C34" t="n">
-        <v>22.17760870524396</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D34" t="n">
-        <v>3.546260624828477</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E34" t="n">
-        <v>1.364750253185292</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3518356295473666</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G34" t="n">
-        <v>22.92176696507488</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H34" t="n">
-        <v>17.1579601140557</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I34" t="n">
-        <v>10.38126253387441</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.22417898378561</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S34" t="n">
-        <v>78.94738564358838</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T34" t="n">
-        <v>82.87637703489762</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U34" t="n">
-        <v>141.249816963107</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V34" t="n">
-        <v>107.0684309304441</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W34" t="n">
-        <v>141.4537859432071</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X34" t="n">
-        <v>80.64044299565327</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y34" t="n">
-        <v>73.51544095871091</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.6646292700967</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C35" t="n">
-        <v>220.2036793776237</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D35" t="n">
-        <v>209.6138292272991</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E35" t="n">
-        <v>236.8611576788779</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F35" t="n">
-        <v>261.8068333483276</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G35" t="n">
-        <v>270.2335251217512</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H35" t="n">
-        <v>194.4055897223833</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I35" t="n">
-        <v>65.40667717702203</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.799905547765803</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S35" t="n">
-        <v>63.95085719286146</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T35" t="n">
-        <v>78.02663717074748</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U35" t="n">
-        <v>106.2764405144526</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V35" t="n">
-        <v>182.683046076751</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W35" t="n">
-        <v>204.1717563240291</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X35" t="n">
-        <v>224.6618882850852</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.1687262626697</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.46397125648346</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C36" t="n">
-        <v>27.63928659493186</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D36" t="n">
-        <v>2.375853171254874</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E36" t="n">
-        <v>12.57586806201707</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>26.61395871045394</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T36" t="n">
-        <v>55.09551630143773</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U36" t="n">
-        <v>80.87216968759094</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V36" t="n">
-        <v>87.73137475604139</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W36" t="n">
-        <v>106.6257707675357</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X36" t="n">
-        <v>60.7037728100936</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y36" t="n">
-        <v>60.61348338392048</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="37">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.76276778855342</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C37" t="n">
-        <v>22.17760870524396</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D37" t="n">
-        <v>3.546260624828477</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E37" t="n">
-        <v>1.364750253185292</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3518356295473666</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G37" t="n">
-        <v>22.92176696507488</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H37" t="n">
-        <v>17.1579601140557</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I37" t="n">
-        <v>10.38126253387441</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>32.22417898378561</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S37" t="n">
-        <v>78.94738564358838</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T37" t="n">
-        <v>82.87637703489762</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U37" t="n">
-        <v>141.249816963107</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V37" t="n">
-        <v>107.0684309304441</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W37" t="n">
-        <v>141.4537859432071</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X37" t="n">
-        <v>80.64044299565327</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.51544095871091</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.6646292700967</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C38" t="n">
-        <v>220.2036793776237</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D38" t="n">
-        <v>209.6138292272991</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E38" t="n">
-        <v>236.8611576788779</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F38" t="n">
-        <v>261.8068333483276</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G38" t="n">
-        <v>270.2335251217512</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H38" t="n">
-        <v>194.4055897223833</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I38" t="n">
-        <v>65.40667717702203</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.799905547765803</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S38" t="n">
-        <v>63.95085719286146</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T38" t="n">
-        <v>78.02663717074748</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U38" t="n">
-        <v>106.2764405144526</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V38" t="n">
-        <v>182.683046076751</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W38" t="n">
-        <v>204.1717563240291</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X38" t="n">
-        <v>224.6618882850852</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.1687262626697</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="39">
@@ -25467,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21.46397125648346</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C39" t="n">
-        <v>27.63928659493186</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D39" t="n">
-        <v>2.375853171254874</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E39" t="n">
-        <v>12.57586806201707</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>26.61395871045394</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T39" t="n">
-        <v>55.09551630143773</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U39" t="n">
-        <v>80.87216968759094</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V39" t="n">
-        <v>87.73137475604139</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W39" t="n">
-        <v>106.6257707675357</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X39" t="n">
-        <v>60.7037728100936</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y39" t="n">
-        <v>60.61348338392048</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="40">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.76276778855342</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C40" t="n">
-        <v>22.17760870524396</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D40" t="n">
-        <v>3.546260624828477</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E40" t="n">
-        <v>1.364750253185292</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3518356295473666</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G40" t="n">
-        <v>22.92176696507488</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H40" t="n">
-        <v>17.1579601140557</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I40" t="n">
-        <v>10.38126253387441</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>32.22417898378561</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S40" t="n">
-        <v>78.94738564358838</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T40" t="n">
-        <v>82.87637703489762</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U40" t="n">
-        <v>141.249816963107</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V40" t="n">
-        <v>107.0684309304441</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W40" t="n">
-        <v>141.4537859432071</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X40" t="n">
-        <v>80.64044299565327</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.51544095871091</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>244.4566917483436</v>
+        <v>346.3283129702527</v>
       </c>
       <c r="C41" t="n">
-        <v>226.9957418558706</v>
+        <v>328.8673630777797</v>
       </c>
       <c r="D41" t="n">
-        <v>216.405891705546</v>
+        <v>318.2775129274551</v>
       </c>
       <c r="E41" t="n">
-        <v>243.6532201571248</v>
+        <v>345.5248413790339</v>
       </c>
       <c r="F41" t="n">
-        <v>268.5988958265744</v>
+        <v>370.4705170484836</v>
       </c>
       <c r="G41" t="n">
-        <v>277.0255875999981</v>
+        <v>378.8972088219072</v>
       </c>
       <c r="H41" t="n">
-        <v>201.1976522006302</v>
+        <v>303.0692734225393</v>
       </c>
       <c r="I41" t="n">
-        <v>72.19873965526895</v>
+        <v>174.0703608771781</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>11.59196802601272</v>
+        <v>113.4635892479218</v>
       </c>
       <c r="S41" t="n">
-        <v>70.74291967110838</v>
+        <v>172.6145408930175</v>
       </c>
       <c r="T41" t="n">
-        <v>84.8186996489944</v>
+        <v>186.6903208709035</v>
       </c>
       <c r="U41" t="n">
-        <v>113.0685029926995</v>
+        <v>214.9401242146087</v>
       </c>
       <c r="V41" t="n">
-        <v>189.4751085549979</v>
+        <v>291.3467297769071</v>
       </c>
       <c r="W41" t="n">
-        <v>210.9638188022761</v>
+        <v>312.8354400241852</v>
       </c>
       <c r="X41" t="n">
-        <v>231.4539507633321</v>
+        <v>333.3255719852412</v>
       </c>
       <c r="Y41" t="n">
-        <v>247.9607887409166</v>
+        <v>349.8324099628257</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.25603373473038</v>
+        <v>130.1276549566395</v>
       </c>
       <c r="C42" t="n">
-        <v>34.43134907317878</v>
+        <v>136.3029702950879</v>
       </c>
       <c r="D42" t="n">
-        <v>9.167915649501793</v>
+        <v>111.0395368714109</v>
       </c>
       <c r="E42" t="n">
-        <v>19.36793054026398</v>
+        <v>121.2395517621731</v>
       </c>
       <c r="F42" t="n">
-        <v>6.792062478246919</v>
+        <v>108.663683700156</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>100.9379884699828</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>75.82991554326863</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>52.99110415818724</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>63.7523054594153</v>
       </c>
       <c r="S42" t="n">
-        <v>33.40602118870086</v>
+        <v>135.27764241061</v>
       </c>
       <c r="T42" t="n">
-        <v>61.88757877968465</v>
+        <v>163.7592000015938</v>
       </c>
       <c r="U42" t="n">
-        <v>87.66423216583786</v>
+        <v>189.535853387747</v>
       </c>
       <c r="V42" t="n">
-        <v>94.52343723428831</v>
+        <v>196.3950584561974</v>
       </c>
       <c r="W42" t="n">
-        <v>113.4178332457826</v>
+        <v>215.2894544676918</v>
       </c>
       <c r="X42" t="n">
-        <v>67.49583528834052</v>
+        <v>169.3674565102496</v>
       </c>
       <c r="Y42" t="n">
-        <v>67.4055458621674</v>
+        <v>169.2771670840765</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.55483026680034</v>
+        <v>143.4264514887095</v>
       </c>
       <c r="C43" t="n">
-        <v>28.96967118349087</v>
+        <v>130.8412924054</v>
       </c>
       <c r="D43" t="n">
-        <v>10.3383231030754</v>
+        <v>112.2099443249845</v>
       </c>
       <c r="E43" t="n">
-        <v>8.156812731432211</v>
+        <v>110.0284339533413</v>
       </c>
       <c r="F43" t="n">
-        <v>7.143898107794286</v>
+        <v>109.0155193297034</v>
       </c>
       <c r="G43" t="n">
-        <v>29.7138294433218</v>
+        <v>131.5854506652309</v>
       </c>
       <c r="H43" t="n">
-        <v>23.95002259230262</v>
+        <v>125.8216438142117</v>
       </c>
       <c r="I43" t="n">
-        <v>17.17332501212132</v>
+        <v>119.0449462340304</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>56.95365142344494</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>49.75651455846655</v>
       </c>
       <c r="R43" t="n">
-        <v>39.01624146203253</v>
+        <v>140.8878626839416</v>
       </c>
       <c r="S43" t="n">
-        <v>85.7394481218353</v>
+        <v>187.6110693437444</v>
       </c>
       <c r="T43" t="n">
-        <v>89.66843951314453</v>
+        <v>191.5400607350537</v>
       </c>
       <c r="U43" t="n">
-        <v>148.0418794413539</v>
+        <v>249.9135006632631</v>
       </c>
       <c r="V43" t="n">
-        <v>113.860493408691</v>
+        <v>215.7321146306002</v>
       </c>
       <c r="W43" t="n">
-        <v>148.245848421454</v>
+        <v>250.1174696433632</v>
       </c>
       <c r="X43" t="n">
-        <v>87.43250547390019</v>
+        <v>189.3041266958093</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.30750343695783</v>
+        <v>182.179124658867</v>
       </c>
     </row>
     <row r="44">
@@ -25862,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>346.3283129702527</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>328.8673630777797</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>318.2775129274551</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>345.5248413790339</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>370.4705170484836</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>378.8972088219072</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>303.0692734225393</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>174.0703608771781</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>113.4635892479218</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>172.6145408930175</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>186.6903208709035</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>214.9401242146087</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>291.3467297769071</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>312.8354400241852</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>333.3255719852412</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>349.8324099628257</v>
       </c>
     </row>
     <row r="45">
@@ -25941,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>130.1276549566395</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>136.3029702950879</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>111.0395368714109</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>121.2395517621731</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>108.663683700156</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>100.9379884699828</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>75.82991554326863</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>52.99110415818724</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>63.7523054594153</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>135.27764241061</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>163.7592000015938</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>189.535853387747</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>196.3950584561974</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>215.2894544676918</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>169.3674565102496</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>169.2771670840765</v>
       </c>
     </row>
     <row r="46">
@@ -26020,34 +26022,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4264514887095</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>130.8412924054</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>112.2099443249845</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0284339533413</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>109.0155193297034</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>131.5854506652309</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>125.8216438142117</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>119.0449462340304</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>56.95365142344494</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,34 +26064,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>49.75651455846655</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>140.8878626839416</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>187.6110693437444</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>191.5400607350537</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>249.9135006632631</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>215.7321146306002</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>250.1174696433632</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>189.3041266958093</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>182.179124658867</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>345838.1721079472</v>
+        <v>476502.1890449789</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>479548.1079241312</v>
+        <v>476502.1890449789</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>479548.1079241312</v>
+        <v>497470.944333653</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>479548.1079241311</v>
+        <v>497470.944333653</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>479548.1079241311</v>
+        <v>497470.944333653</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>471172.1029189755</v>
+        <v>476502.189044979</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>557403.4097690582</v>
+        <v>476502.1890449789</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>557403.4097690581</v>
+        <v>511236.6660840338</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>557403.4097690581</v>
+        <v>511236.6660840337</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>557403.409769058</v>
+        <v>511236.6660840338</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>548183.5924785871</v>
+        <v>387390.093444847</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>322522.2165943392</v>
+        <v>387390.093444847</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>757830.6133132604</v>
+      </c>
+      <c r="C2" t="n">
+        <v>757830.6133132601</v>
+      </c>
+      <c r="D2" t="n">
         <v>757830.6133132603</v>
       </c>
-      <c r="C2" t="n">
-        <v>757830.6133132604</v>
-      </c>
-      <c r="D2" t="n">
-        <v>757830.6133132605</v>
-      </c>
       <c r="E2" t="n">
-        <v>227209.6859961222</v>
+        <v>398153.8684810193</v>
       </c>
       <c r="F2" t="n">
-        <v>402275.5798219452</v>
+        <v>398153.8684810192</v>
       </c>
       <c r="G2" t="n">
-        <v>402275.5798219452</v>
+        <v>426914.6807991346</v>
       </c>
       <c r="H2" t="n">
-        <v>402275.5798219453</v>
+        <v>426914.6807991345</v>
       </c>
       <c r="I2" t="n">
-        <v>402275.5798219453</v>
+        <v>426914.6807991345</v>
       </c>
       <c r="J2" t="n">
-        <v>391092.7593848295</v>
+        <v>398153.8684810193</v>
       </c>
       <c r="K2" t="n">
-        <v>513003.5019263155</v>
+        <v>398153.8684810194</v>
       </c>
       <c r="L2" t="n">
-        <v>513003.501926316</v>
+        <v>446222.5186211801</v>
       </c>
       <c r="M2" t="n">
-        <v>513003.5019263161</v>
+        <v>446222.5186211802</v>
       </c>
       <c r="N2" t="n">
-        <v>513003.5019263161</v>
+        <v>446222.5186211799</v>
       </c>
       <c r="O2" t="n">
-        <v>499392.7520849073</v>
+        <v>281369.6934804986</v>
       </c>
       <c r="P2" t="n">
-        <v>198888.7002331758</v>
+        <v>281369.6934804989</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>9559.431483690014</v>
+        <v>71517.30628113206</v>
       </c>
       <c r="F3" t="n">
-        <v>63495.98461875798</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>10853.37384651716</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5433.649982597535</v>
+        <v>60663.9324346149</v>
       </c>
       <c r="K3" t="n">
-        <v>110621.7199321096</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>29124.42295458227</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>161918.9841029391</v>
+        <v>264424.2940714865</v>
       </c>
       <c r="F4" t="n">
-        <v>266540.2844515482</v>
+        <v>264424.2940714865</v>
       </c>
       <c r="G4" t="n">
-        <v>266540.2844515482</v>
+        <v>281447.9126196979</v>
       </c>
       <c r="H4" t="n">
-        <v>266540.2844515482</v>
+        <v>281447.9126196979</v>
       </c>
       <c r="I4" t="n">
-        <v>266540.2844515482</v>
+        <v>281447.9126196979</v>
       </c>
       <c r="J4" t="n">
-        <v>259882.3499284709</v>
+        <v>264424.2940714865</v>
       </c>
       <c r="K4" t="n">
-        <v>331693.8889477487</v>
+        <v>264424.2940714865</v>
       </c>
       <c r="L4" t="n">
-        <v>331693.8889477487</v>
+        <v>292828.2422838167</v>
       </c>
       <c r="M4" t="n">
-        <v>331693.8889477487</v>
+        <v>292828.2422838167</v>
       </c>
       <c r="N4" t="n">
-        <v>331693.8889477487</v>
+        <v>292828.2422838167</v>
       </c>
       <c r="O4" t="n">
-        <v>323738.2864618965</v>
+        <v>194686.6542632449</v>
       </c>
       <c r="P4" t="n">
-        <v>144738.4206832074</v>
+        <v>194686.654263245</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1004.56480675292</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="F5" t="n">
-        <v>7677.119720395875</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="G5" t="n">
-        <v>7677.119720395875</v>
+        <v>8656.025884564178</v>
       </c>
       <c r="H5" t="n">
-        <v>7677.119720395875</v>
+        <v>8656.025884564178</v>
       </c>
       <c r="I5" t="n">
-        <v>7677.119720395875</v>
+        <v>8656.025884564178</v>
       </c>
       <c r="J5" t="n">
-        <v>7243.556814126696</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="K5" t="n">
-        <v>12195.82361669939</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="L5" t="n">
-        <v>12195.82361669939</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="M5" t="n">
-        <v>12195.82361669939</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="N5" t="n">
-        <v>12195.82361669939</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="O5" t="n">
-        <v>11624.82171621565</v>
+        <v>3060.576391710971</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3060.576391710971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>256587.0533815291</v>
+      </c>
+      <c r="C6" t="n">
+        <v>256587.0533815289</v>
+      </c>
+      <c r="D6" t="n">
         <v>256587.053381529</v>
       </c>
-      <c r="C6" t="n">
-        <v>256587.0533815291</v>
-      </c>
-      <c r="D6" t="n">
-        <v>256587.0533815293</v>
-      </c>
       <c r="E6" t="n">
-        <v>54726.70560274015</v>
+        <v>54696.78260121511</v>
       </c>
       <c r="F6" t="n">
-        <v>64562.19103124314</v>
+        <v>126214.0888823471</v>
       </c>
       <c r="G6" t="n">
-        <v>128058.1756500011</v>
+        <v>125957.3684483554</v>
       </c>
       <c r="H6" t="n">
-        <v>128058.1756500012</v>
+        <v>136810.7422948724</v>
       </c>
       <c r="I6" t="n">
-        <v>128058.1756500012</v>
+        <v>136810.7422948724</v>
       </c>
       <c r="J6" t="n">
-        <v>118533.2026596343</v>
+        <v>65550.1564477323</v>
       </c>
       <c r="K6" t="n">
-        <v>58492.06942975787</v>
+        <v>126214.0888823473</v>
       </c>
       <c r="L6" t="n">
-        <v>169113.7893618679</v>
+        <v>114834.3318212631</v>
       </c>
       <c r="M6" t="n">
-        <v>169113.789361868</v>
+        <v>143958.7547758454</v>
       </c>
       <c r="N6" t="n">
-        <v>169113.789361868</v>
+        <v>143958.7547758451</v>
       </c>
       <c r="O6" t="n">
-        <v>164029.6439067952</v>
+        <v>83622.46282554265</v>
       </c>
       <c r="P6" t="n">
-        <v>54150.27954996846</v>
+        <v>83622.46282554291</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F2" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G2" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H2" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I2" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J2" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M2" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N2" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O2" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
     </row>
     <row r="3">
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F2" t="n">
-        <v>79.36998077344747</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.56671730814646</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.792062478246919</v>
+        <v>75.82991554326863</v>
       </c>
       <c r="K2" t="n">
-        <v>138.277149915137</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>79.36998077344747</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>13.56671730814646</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.792062478246919</v>
+        <v>75.82991554326863</v>
       </c>
       <c r="P2" t="n">
-        <v>138.277149915137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,31 +28089,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28129,34 +28131,34 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>40.90388729998647</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="12">
@@ -28166,43 +28168,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>8.792873298677129</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -28211,31 +28213,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.94928935461252</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="14">
@@ -28324,40 +28326,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C14" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D14" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E14" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F14" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G14" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H14" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I14" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J14" t="n">
-        <v>91.31927012805998</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28369,31 +28371,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.4703275974784</v>
+        <v>70.31122202266064</v>
       </c>
       <c r="R14" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S14" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T14" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U14" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V14" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W14" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X14" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="15">
@@ -28403,40 +28405,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C15" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D15" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E15" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F15" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G15" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H15" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I15" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>91.31927012805998</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>91.31927012805998</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -28451,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S15" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T15" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U15" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V15" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W15" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X15" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y15" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.31927012805998</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="17">
@@ -28561,34 +28563,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C17" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D17" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E17" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F17" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G17" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H17" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I17" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J17" t="n">
-        <v>78.4703275974784</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28606,31 +28608,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>91.31927012805998</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S17" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T17" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U17" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V17" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W17" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X17" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y17" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="18">
@@ -28640,76 +28642,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C18" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D18" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E18" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F18" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G18" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H18" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I18" t="n">
-        <v>91.31927012805998</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>91.31927012805998</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>59.70373891586794</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>91.31927012805998</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R18" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S18" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T18" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U18" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V18" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W18" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X18" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y18" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="L19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="M19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="N19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="O19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="P19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Q19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y19" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="20">
@@ -28798,34 +28800,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28837,37 +28839,37 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Q20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y20" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="21">
@@ -28877,34 +28879,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C21" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D21" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E21" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F21" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G21" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H21" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I21" t="n">
-        <v>91.31927012805998</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>91.31927012805998</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>91.31927012805998</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -28916,7 +28918,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>91.31927012805998</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -28925,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>91.31927012805998</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T21" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U21" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V21" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W21" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X21" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y21" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C22" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D22" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E22" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F22" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G22" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H22" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I22" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J22" t="n">
-        <v>91.31927012805998</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>91.31927012805998</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
-        <v>91.31927012805998</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>91.31927012805998</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>48.70361073496847</v>
+        <v>85.28067767391239</v>
       </c>
       <c r="O22" t="n">
-        <v>91.31927012805998</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>91.31927012805998</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R22" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S22" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T22" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U22" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V22" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W22" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X22" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y22" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="23">
@@ -29035,34 +29037,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29074,37 +29076,37 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>71.07407573629011</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y23" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="24">
@@ -29114,31 +29116,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C24" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D24" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E24" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F24" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G24" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H24" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I24" t="n">
-        <v>91.31927012805998</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29147,43 +29149,43 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>67.19719877347906</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>91.31927012805998</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="R24" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S24" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T24" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U24" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V24" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W24" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X24" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y24" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="C25" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="D25" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="E25" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="F25" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="G25" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="H25" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="I25" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="J25" t="n">
-        <v>91.31927012805998</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>91.31927012805998</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
-        <v>91.31927012805998</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>91.31927012805998</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>91.31927012805998</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>91.31927012805998</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>91.31927012805998</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>91.31927012805998</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="S25" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="T25" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="U25" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="V25" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="W25" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="X25" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.31927012805998</v>
+        <v>102.9633501595615</v>
       </c>
     </row>
     <row r="26">
@@ -29272,37 +29274,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C26" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D26" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E26" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F26" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G26" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H26" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I26" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J26" t="n">
-        <v>86.16204325169439</v>
+        <v>57.44524490595947</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -29311,37 +29313,37 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q26" t="n">
-        <v>74.03874068361247</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S26" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T26" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U26" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V26" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W26" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X26" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y26" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="27">
@@ -29351,40 +29353,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C27" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D27" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E27" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F27" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G27" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H27" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I27" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>86.16204325169439</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -29399,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S27" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T27" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U27" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V27" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W27" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X27" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y27" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y28" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="29">
@@ -29509,31 +29511,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C29" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D29" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E29" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F29" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G29" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H29" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I29" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J29" t="n">
-        <v>145.0692123933839</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29548,37 +29550,37 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q29" t="n">
-        <v>145.0692123933839</v>
+        <v>50.04435553732401</v>
       </c>
       <c r="R29" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S29" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T29" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U29" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V29" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W29" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X29" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C30" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D30" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E30" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>85.27229523031522</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R30" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S30" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T30" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U30" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V30" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W30" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X30" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y30" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C31" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D31" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E31" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F31" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G31" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H31" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I31" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9954214393961</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K31" t="n">
-        <v>129.0132581705354</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P31" t="n">
-        <v>137.7280040491476</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q31" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R31" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S31" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T31" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U31" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V31" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W31" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X31" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y31" t="n">
-        <v>145.0692123933839</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29748,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C32" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D32" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E32" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F32" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G32" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H32" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I32" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J32" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29785,37 +29787,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q32" t="n">
-        <v>145.0692123933839</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S32" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T32" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U32" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V32" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W32" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X32" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="33">
@@ -29825,76 +29827,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C33" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D33" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E33" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>77.69044993035023</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>145.0692123933839</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T33" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U33" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V33" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W33" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X33" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y33" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C34" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D34" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E34" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F34" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G34" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H34" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I34" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9954214393961</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K34" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M34" t="n">
-        <v>138.9257839476051</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>27.40847787857676</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P34" t="n">
-        <v>137.7280040491476</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q34" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R34" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S34" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T34" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U34" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V34" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W34" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X34" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y34" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="35">
@@ -29983,40 +29985,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C35" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D35" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E35" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F35" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G35" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H35" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I35" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J35" t="n">
-        <v>145.0692123933839</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>97.32303672706207</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30025,34 +30027,34 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q35" t="n">
-        <v>145.0692123933839</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S35" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T35" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U35" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V35" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W35" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X35" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="36">
@@ -30062,76 +30064,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C36" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D36" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E36" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M36" t="n">
-        <v>26.39514337734768</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>145.0692123933839</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T36" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U36" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V36" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W36" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X36" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y36" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="37">
@@ -30141,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C37" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D37" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E37" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F37" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G37" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H37" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I37" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J37" t="n">
-        <v>126.9954214393961</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K37" t="n">
-        <v>129.0132581705354</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30183,34 +30185,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>145.0692123933839</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S37" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T37" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U37" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V37" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W37" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X37" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="38">
@@ -30220,34 +30222,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C38" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D38" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E38" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F38" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G38" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H38" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I38" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J38" t="n">
-        <v>145.0692123933839</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30262,34 +30264,34 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q38" t="n">
-        <v>145.0692123933839</v>
+        <v>38.41659395660571</v>
       </c>
       <c r="R38" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S38" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T38" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U38" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V38" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W38" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X38" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="39">
@@ -30299,22 +30301,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C39" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D39" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E39" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -30323,52 +30325,52 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>18.2355168696601</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S39" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T39" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U39" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V39" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W39" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X39" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y39" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="40">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C40" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D40" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E40" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F40" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G40" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H40" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I40" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J40" t="n">
-        <v>126.9954214393961</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0132581705354</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P40" t="n">
-        <v>137.7280040491476</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q40" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R40" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S40" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T40" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U40" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V40" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W40" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X40" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.0692123933839</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30459,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="C41" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="D41" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="E41" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="F41" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="G41" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="H41" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="I41" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="J41" t="n">
-        <v>138.277149915137</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>11.12409780240448</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="R41" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="S41" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="T41" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="U41" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="V41" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="W41" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="X41" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Y41" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
     </row>
     <row r="42">
@@ -30536,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="C42" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="D42" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="E42" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="F42" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>138.277149915137</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>138.277149915137</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>96.04550305974567</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="S42" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="T42" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="U42" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="V42" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="W42" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="X42" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Y42" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="C43" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="D43" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="E43" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="F43" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="G43" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="H43" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="I43" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="J43" t="n">
-        <v>126.9954214393961</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="K43" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="P43" t="n">
-        <v>137.7280040491476</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="R43" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="S43" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="T43" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="U43" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="V43" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="W43" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="X43" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.277149915137</v>
+        <v>36.40552869322784</v>
       </c>
     </row>
     <row r="44">
@@ -30694,31 +30696,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30739,31 +30741,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>25.51957549400453</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
     </row>
     <row r="45">
@@ -30773,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
     </row>
     <row r="46">
@@ -30852,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30891,37 +30893,37 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>36.40552869322784</v>
       </c>
     </row>
   </sheetData>
